--- a/Plan Support Docs/Gannt Chart.xlsx
+++ b/Plan Support Docs/Gannt Chart.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Days</t>
   </si>
@@ -73,6 +73,48 @@
   </si>
   <si>
     <t>Critical?</t>
+  </si>
+  <si>
+    <t>28th Feb</t>
+  </si>
+  <si>
+    <t>5th Mar</t>
+  </si>
+  <si>
+    <t>11th Mar</t>
+  </si>
+  <si>
+    <t>15th Mar</t>
+  </si>
+  <si>
+    <t>6th Apr</t>
+  </si>
+  <si>
+    <t>14th Apr</t>
+  </si>
+  <si>
+    <t>18th Apr</t>
+  </si>
+  <si>
+    <t>20th Apr</t>
+  </si>
+  <si>
+    <t>24th Apr</t>
+  </si>
+  <si>
+    <t>19th Apr</t>
+  </si>
+  <si>
+    <t>16th Apr</t>
+  </si>
+  <si>
+    <t>12th Apr</t>
+  </si>
+  <si>
+    <t>6th Mar</t>
+  </si>
+  <si>
+    <t>29th Feb</t>
   </si>
 </sst>
 </file>
@@ -493,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AM29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
       <selection activeCell="F19" sqref="F19:AI29"/>
     </sheetView>
   </sheetViews>
@@ -823,8 +865,12 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
+      <c r="AH20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI20" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
     </row>
@@ -860,8 +906,12 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
+      <c r="AH21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI21" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
     </row>
@@ -897,8 +947,12 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
+      <c r="AH22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI22" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
     </row>
@@ -934,8 +988,12 @@
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
+      <c r="AH23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI23" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AJ23" s="7"/>
       <c r="AK23" s="7"/>
     </row>
@@ -971,8 +1029,12 @@
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
+      <c r="AH24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI24" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="AJ24" s="7"/>
       <c r="AK24" s="7"/>
     </row>
@@ -1008,8 +1070,12 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
+      <c r="AH25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI25" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
     </row>
@@ -1045,8 +1111,12 @@
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
+      <c r="AH26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI26" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="AJ26" s="7"/>
       <c r="AK26" s="7"/>
     </row>
@@ -1082,8 +1152,12 @@
       <c r="AE27" s="21"/>
       <c r="AF27" s="21"/>
       <c r="AG27" s="21"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
+      <c r="AH27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI27" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="AJ27" s="7"/>
       <c r="AK27" s="7"/>
     </row>
@@ -1119,8 +1193,12 @@
       <c r="AE28" s="11"/>
       <c r="AF28" s="11"/>
       <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
+      <c r="AH28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI28" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="AJ28" s="23"/>
       <c r="AK28" s="23"/>
     </row>
@@ -1159,8 +1237,12 @@
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="11"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
+      <c r="AH29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI29" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="AJ29" s="23"/>
       <c r="AK29" s="23"/>
     </row>
